--- a/bin/Debug/Sortimentos/Título.xlsx
+++ b/bin/Debug/Sortimentos/Título.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Source\Repos\henrique4d\Simulador\bin\Debug\Sortimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771E9D00-CB3C-4DA9-935F-F93F5F478B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB568A-C7FE-4A32-B22E-01D060607047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{0393D8DB-593F-4545-B3FB-3D257FAAC0CE}"/>
+    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{454206B6-BE0B-4243-A616-9CA7AFE49506}"/>
   </bookViews>
   <sheets>
     <sheet name="Sortimentos" sheetId="1" r:id="rId1"/>
@@ -34,54 +34,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-14B_CR14</t>
+    <t>R66_Tmaybe_D10-20B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-14B_CR14</t>
+    <t>R66_Tmaybe_D9-20B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-16B_CR16</t>
+    <t>R66_Tmaybe_D10-20B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-14B_CR14</t>
+    <t>R66_Tmaybe_D8-20B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-16B_CR16</t>
+    <t>R66_Tmaybe_D9-20B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-16B_CR16</t>
+    <t>R66_Tmaybe_D8-20B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-15B_CR15</t>
+    <t>R66_Tmaybe_D10-30B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-17B_CR17</t>
+    <t>R66_Tmaybe_D10-20B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-15B_CR15</t>
+    <t>R66_Tmaybe_D10-20B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-17B_CR17</t>
+    <t>R66_Tmaybe_D9-30B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-15B_CR15</t>
+    <t>R66_Tmaybe_D9-20B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-17B_CR17</t>
+    <t>R66_Tmaybe_D9-20B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-18B_CR18</t>
+    <t>R66_Tmaybe_D10-30B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-18B_CR18</t>
+    <t>R66_Tmaybe_D8-20B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-18B_CR18</t>
+    <t>R66_Tmaybe_D9-30B_CR16</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-20B_CR17</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-20B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-40B_CR14</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-20B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-30B_CR14</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-30B_CR15</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-30B_CR17</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-20B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-40B_CR14</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-40B_CR16</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-30B_CR16</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-30B_CR15</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-30B_CR17</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-30B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-40B_CR16</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-50B_CR14</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-40B_CR15</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-40B_CR17</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-30B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-30B_CR15</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-30B_CR17</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-50B_CR16</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-40B_CR14</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-40B_CR15</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-50B_CR14</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-40B_CR17</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-40B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-30B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-40B_CR16</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-50B_CR15</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-50B_CR16</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-50B_CR17</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-40B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-50B_CR15</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-40B_CR15</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-40B_CR17</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-50B_CR17</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D10-50B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-50B_CR14</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-40B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D9-50B_CR18</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-50B_CR16</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-50B_CR15</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-50B_CR17</t>
+  </si>
+  <si>
+    <t>R66_Tmaybe_D8-50B_CR18</t>
   </si>
   <si>
     <t>R66_Tmaybe_CR8</t>
@@ -435,7 +570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B256102D-B77C-4CDA-85E9-05ADD30DA1A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE695B9-F691-4EAD-9102-15CAC317BE27}">
   <dimension ref="A1:AH62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1172,7 +1307,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1276,7 +1411,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1380,7 +1515,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1484,7 +1619,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1588,7 +1723,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1692,7 +1827,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1796,7 +1931,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1900,7 +2035,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2004,7 +2139,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2108,7 +2243,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2212,7 +2347,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2316,7 +2451,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2420,7 +2555,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2524,7 +2659,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2628,7 +2763,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2732,7 +2867,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2836,7 +2971,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2940,7 +3075,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3044,7 +3179,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3148,7 +3283,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3252,7 +3387,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3356,7 +3491,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3460,7 +3595,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3564,7 +3699,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3668,7 +3803,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3772,7 +3907,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3876,7 +4011,7 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3980,7 +4115,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4084,7 +4219,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4188,7 +4323,7 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4292,7 +4427,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4396,7 +4531,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4500,7 +4635,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4604,7 +4739,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4708,7 +4843,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4812,7 +4947,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4916,7 +5051,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5020,7 +5155,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5124,7 +5259,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5228,7 +5363,7 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5332,7 +5467,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5436,7 +5571,7 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5540,7 +5675,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5644,7 +5779,7 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5748,7 +5883,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5852,7 +5987,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5956,7 +6091,7 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6060,7 +6195,7 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6164,7 +6299,7 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6268,7 +6403,7 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6372,7 +6507,7 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6476,7 +6611,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6580,7 +6715,7 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -6684,7 +6819,7 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6788,7 +6923,7 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>0</v>

--- a/bin/Debug/Sortimentos/Título.xlsx
+++ b/bin/Debug/Sortimentos/Título.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Source\Repos\henrique4d\Simulador\bin\Debug\Sortimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB568A-C7FE-4A32-B22E-01D060607047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B98B91-83C5-4AD0-9891-9ABFAAE29152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{454206B6-BE0B-4243-A616-9CA7AFE49506}"/>
+    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{E65C28AF-5EBC-42E0-8C00-A9BA8408B4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sortimentos" sheetId="1" r:id="rId1"/>
@@ -34,192 +34,372 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-20B_CR14</t>
+    <t>R66_T33_D10-20B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-20B_CR14</t>
+    <t>R60_T35_D10-20B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-20B_CR16</t>
+    <t>R66_T33_D9-20B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-20B_CR14</t>
+    <t>R60_T35_D9-20B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-20B_CR16</t>
+    <t>R66_T33_D10-20B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-20B_CR16</t>
+    <t>R60_T35_D10-20B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-30B_CR14</t>
+    <t>R66_T33_D8-20B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-20B_CR15</t>
+    <t>R60_T35_D8-20B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-20B_CR17</t>
+    <t>R66_T33_D9-20B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-30B_CR14</t>
+    <t>R60_T35_D9-20B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-20B_CR15</t>
+    <t>R66_T33_D8-20B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-20B_CR17</t>
+    <t>R60_T35_D8-20B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-30B_CR16</t>
+    <t>R66_T33_D10-30B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-20B_CR15</t>
+    <t>R60_T35_D10-30B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-30B_CR16</t>
+    <t>R66_T33_D10-20B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-20B_CR17</t>
+    <t>R60_T35_D10-20B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-20B_CR18</t>
+    <t>R66_T33_D10-20B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-40B_CR14</t>
+    <t>R60_T35_D10-20B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-20B_CR18</t>
+    <t>R66_T33_D9-30B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-30B_CR14</t>
+    <t>R60_T35_D9-30B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-30B_CR15</t>
+    <t>R66_T33_D9-20B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-30B_CR17</t>
+    <t>R60_T35_D9-20B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-20B_CR18</t>
+    <t>R66_T33_D9-20B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-40B_CR14</t>
+    <t>R60_T35_D9-20B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-40B_CR16</t>
+    <t>R66_T33_D10-30B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-30B_CR16</t>
+    <t>R60_T35_D10-30B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-30B_CR15</t>
+    <t>R66_T33_D9-30B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-30B_CR17</t>
+    <t>R60_T35_D9-30B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-30B_CR18</t>
+    <t>R66_T33_D8-20B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-40B_CR16</t>
+    <t>R60_T35_D8-20B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-50B_CR14</t>
+    <t>R66_T33_D8-20B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-40B_CR15</t>
+    <t>R60_T35_D8-20B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-40B_CR17</t>
+    <t>R66_T33_D10-20B_CR18</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-30B_CR18</t>
+    <t>R60_T35_D10-20B_CR18</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-30B_CR15</t>
+    <t>R66_T33_D8-30B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-30B_CR17</t>
+    <t>R60_T35_D8-30B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-50B_CR16</t>
+    <t>R66_T33_D9-20B_CR18</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-40B_CR14</t>
+    <t>R60_T35_D9-20B_CR18</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-40B_CR15</t>
+    <t>R66_T33_D10-40B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-50B_CR14</t>
+    <t>R60_T35_D10-40B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-40B_CR17</t>
+    <t>R66_T33_D10-30B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-40B_CR18</t>
+    <t>R60_T35_D10-30B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-30B_CR18</t>
+    <t>R66_T33_D10-30B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-40B_CR16</t>
+    <t>R60_T35_D10-30B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-50B_CR15</t>
+    <t>R66_T33_D8-30B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-50B_CR16</t>
+    <t>R60_T35_D8-30B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-50B_CR17</t>
+    <t>R66_T33_D8-20B_CR18</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-40B_CR18</t>
+    <t>R60_T35_D8-20B_CR18</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-50B_CR15</t>
+    <t>R66_T33_D10-40B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-40B_CR15</t>
+    <t>R60_T35_D10-40B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-40B_CR17</t>
+    <t>R66_T33_D9-30B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-50B_CR17</t>
+    <t>R60_T35_D9-30B_CR15</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D10-50B_CR18</t>
+    <t>R66_T33_D9-30B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-50B_CR14</t>
+    <t>R60_T35_D9-30B_CR17</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-40B_CR18</t>
+    <t>R66_T33_D9-40B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D9-50B_CR18</t>
+    <t>R60_T35_D9-40B_CR14</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-50B_CR16</t>
+    <t>R66_T33_D10-30B_CR18</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-50B_CR15</t>
+    <t>R60_T35_D10-30B_CR18</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-50B_CR17</t>
+    <t>R66_T33_D9-40B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_D8-50B_CR18</t>
+    <t>R60_T35_D9-40B_CR16</t>
   </si>
   <si>
-    <t>R66_Tmaybe_CR8</t>
+    <t>R66_T33_D9-30B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-30B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-50B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-50B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-40B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-40B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-30B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-30B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-40B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-40B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-30B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-30B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-50B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-50B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-40B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-40B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-40B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-40B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-40B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-40B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-30B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-30B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-40B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-40B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-50B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-50B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-40B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-40B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-50B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-50B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-50B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-50B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-50B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-50B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-40B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-40B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-40B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-40B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-40B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-40B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D10-50B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D10-50B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-50B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-50B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-50B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-50B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-40B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-40B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-50B_CR14</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-50B_CR14</t>
+  </si>
+  <si>
+    <t>R66_T33_D9-50B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D9-50B_CR18</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-50B_CR16</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-50B_CR16</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-50B_CR17</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-50B_CR17</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-50B_CR15</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-50B_CR15</t>
+  </si>
+  <si>
+    <t>R66_T33_D8-50B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_D8-50B_CR18</t>
+  </si>
+  <si>
+    <t>R60_T35_CR8</t>
   </si>
 </sst>
 </file>
@@ -570,8 +750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE695B9-F691-4EAD-9102-15CAC317BE27}">
-  <dimension ref="A1:AH62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D327EC3-966E-4BB8-8D65-C9D49CC2B07D}">
+  <dimension ref="A1:AH122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,7 +899,7 @@
         <v>2.1435991523887932</v>
       </c>
       <c r="M2">
-        <v>51.947333029147259</v>
+        <v>50.930881937414597</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -752,10 +932,10 @@
         <v>43.092768020951127</v>
       </c>
       <c r="X2">
-        <v>235.27825718671619</v>
+        <v>234.961749018631</v>
       </c>
       <c r="Y2">
-        <v>172.97294286084451</v>
+        <v>172.25988372103268</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -814,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>47.191271820944294</v>
+        <v>42.929804532148836</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -844,22 +1024,22 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>14.602042417957788</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>184.78810787608418</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>162.83592970095805</v>
       </c>
       <c r="W3">
-        <v>43.092768020951141</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>235.27825718671627</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>172.9729428608446</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -918,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>46.277738039466968</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.1435991523887932</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>51.947333029147259</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -957,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>43.092768020951141</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>234.96174901863111</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>172.25988372103274</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -975,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>73.997624461070103</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>272.18693505233864</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>179.57491137076985</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1013,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>35.54323556941614</v>
+        <v>36.840428427068147</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1052,22 +1232,22 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>14.602042417957795</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>184.78810787608427</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>162.83592970095816</v>
       </c>
       <c r="W5">
-        <v>43.092768020951134</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>235.27825718671625</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>172.97294286084451</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1126,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>47.191271820944294</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.1435991523887932</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>50.930881937414597</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1186,10 +1366,10 @@
         <v>73.997624461070103</v>
       </c>
       <c r="AD6">
-        <v>272.18693505233858</v>
+        <v>269.89257425780721</v>
       </c>
       <c r="AE6">
-        <v>179.57491137076983</v>
+        <v>180.61325859279827</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1221,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>35.54323556941614</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1230,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>42.929804532148836</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1278,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>27.324230451233923</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>222.54102715569999</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>171.64909990044328</v>
       </c>
       <c r="AC7">
-        <v>73.997624461070103</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>272.18693505233853</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>179.57491137076983</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1325,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>34.778282351411754</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1340,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.9916950912138471</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>79.479625609959584</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1373,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>43.092768020951127</v>
+        <v>43.092768020951134</v>
       </c>
       <c r="X8">
-        <v>212.14307857166182</v>
+        <v>234.96174901863105</v>
       </c>
       <c r="Y8">
-        <v>140.69750943698955</v>
+        <v>172.25988372103265</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1420,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>28.2162264226072</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1444,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.1435991523887932</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>51.947333029147259</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1468,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>14.602042417957795</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>184.78810787608427</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>162.8359297009581</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1486,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>49.490092476567987</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>246.21244622449734</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>175.70029105940532</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1542,16 +1722,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>46.277738039466968</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.1435991523887932</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>51.947333029147259</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1599,22 +1779,22 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>73.997624461070103</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>269.89257425780715</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>180.61325859279827</v>
       </c>
       <c r="AF10">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>283.40481946933119</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>188.7096977047924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -1637,16 +1817,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>36.840428427068147</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.4107166845851067</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>72.729266623572215</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1685,22 +1865,22 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>43.092768020951141</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>212.14307857166187</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>140.69750943698961</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>27.324230451233923</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>222.54102715570005</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>171.64909990044328</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1741,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>34.778282351411754</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1750,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>47.191271820944294</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1798,22 +1978,22 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>49.49009247656798</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>246.21244622449734</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>175.70029105940529</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>73.997624461070103</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>269.89257425780715</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>180.61325859279827</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1836,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>28.2162264226072</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1854,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>47.191271820944294</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1902,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>27.324230451233923</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>222.54102715570005</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>171.64909990044325</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1920,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>283.40481946933113</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>188.70969770479235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -1967,7 +2147,7 @@
         <v>8.9916950912138471</v>
       </c>
       <c r="M14">
-        <v>79.479625609959584</v>
+        <v>77.488145345985899</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1997,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>43.092768020951127</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>212.15199333974951</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>141.14318168760576</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2015,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>73.997624461070103</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>241.99313988606326</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>144.93887987309984</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2053,16 +2233,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>35.54323556941614</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.0781857947647251</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>66.145159581564656</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2092,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>14.602042417957788</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>174.30097224507978</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>133.63000166431743</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2110,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>49.490092476567987</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>246.21244622449737</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>175.70029105940532</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2163,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.4107166845851067</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>72.729266623572215</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.1435991523887932</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>50.930881937414597</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2223,22 +2403,22 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>73.997624461070103</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>241.9931398860632</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>144.93887987309981</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>84.382415282593058</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>281.07088854210872</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>189.71910038313479</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
@@ -2261,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>35.54323556941614</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2270,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>42.929804532148836</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2327,22 +2507,22 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>33.532256515976343</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>230.76093720773326</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>182.70176704202743</v>
       </c>
       <c r="AF17">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>283.40481946933119</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>188.70969770479235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -2383,7 +2563,7 @@
         <v>2.1435991523887932</v>
       </c>
       <c r="M18">
-        <v>51.947333029147259</v>
+        <v>50.930881937414597</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2422,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>49.490092476567987</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>245.8919663935894</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>174.74667914042811</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2478,16 +2658,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>42.929804532148836</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>17.581644875742164</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>102.40742800201079</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2517,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>43.092768020951127</v>
+        <v>16.754665372102302</v>
       </c>
       <c r="X19">
-        <v>188.69779042061108</v>
+        <v>192.74655501290815</v>
       </c>
       <c r="Y19">
-        <v>113.17773167059067</v>
+        <v>168.0624535607177</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2579,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.4107166845851067</v>
       </c>
       <c r="J20">
-        <v>47.191271820944294</v>
+        <v>71.129818624752104</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2621,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>43.092768020951141</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>212.15199333974957</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>141.14318168760582</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2677,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.979266203937641</v>
+        <v>57.793652622386375</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2716,22 +2896,22 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>14.602042417957795</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>174.30097224507989</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>133.63000166431755</v>
       </c>
       <c r="W21">
-        <v>43.092768020951134</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>212.14307857166182</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>140.69750943698955</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2790,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>46.277738039466968</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.9916950912138471</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>79.479625609959584</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2838,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>49.490092476567987</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>221.79766126262336</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>141.94946237781409</v>
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2856,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>84.382415282593058</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>281.07088854210861</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>189.71910038313473</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
@@ -2885,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>36.840428427068147</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2900,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.9916950912138471</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>79.479625609959584</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2951,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>33.532256515976343</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>230.76093720773326</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>182.70176704202746</v>
       </c>
       <c r="AF23">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>251.7880384412079</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>151.50672460595797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -2989,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>35.54323556941614</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2998,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>46.277738039466968</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3046,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>49.49009247656798</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>245.89196639358937</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>174.74667914042809</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3093,16 +3273,16 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>36.840428427068147</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.467967914470137</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>94.452518260215925</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3141,13 +3321,13 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>43.092768020951141</v>
+        <v>16.754665372102302</v>
       </c>
       <c r="X25">
-        <v>188.69779042061111</v>
+        <v>192.74655501290823</v>
       </c>
       <c r="Y25">
-        <v>113.1777316705907</v>
+        <v>168.06245356071776</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3212,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>17.581644875742164</v>
+        <v>8.9916950912138471</v>
       </c>
       <c r="M26">
-        <v>102.40742800201079</v>
+        <v>77.488145345985899</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3266,10 +3446,10 @@
         <v>73.997624461070103</v>
       </c>
       <c r="AD26">
-        <v>209.17023028897916</v>
+        <v>242.02412219229922</v>
       </c>
       <c r="AE26">
-        <v>118.12961208547269</v>
+        <v>145.4033463692773</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3301,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>58.979266203937641</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.0781857947647251</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>66.145159581564656</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3358,22 +3538,22 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>27.324230451233923</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>205.39585507749825</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>142.82727953104259</v>
       </c>
       <c r="AC27">
-        <v>73.997624461070103</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>241.9931398860632</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>144.93887987309981</v>
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3414,7 +3594,7 @@
         <v>4.4107166845851067</v>
       </c>
       <c r="J28">
-        <v>72.729266623572215</v>
+        <v>71.129818624752104</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3462,22 +3642,22 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>49.49009247656798</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>221.79766126262336</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>141.94946237781403</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>73.997624461070103</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>242.02412219229922</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>145.40334636927727</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3509,16 +3689,16 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>57.793652622386375</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>4.4107166845851067</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>72.729266623572215</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3566,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>27.324230451233923</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>205.39585507749831</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>142.82727953104265</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3584,13 +3764,13 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>251.78803844120782</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>151.50672460595788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -3613,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>34.778282351411754</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3628,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>8.9916950912138471</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>79.479625609959584</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3688,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>84.382415282593058</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>281.07088854210866</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>189.71910038313479</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
@@ -3708,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>28.2162264226072</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3723,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>10.467967914470137</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>94.452518260215925</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3783,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>73.997624461070103</v>
+        <v>33.532256515976343</v>
       </c>
       <c r="AD31">
-        <v>209.17023028897916</v>
+        <v>230.76093720773326</v>
       </c>
       <c r="AE31">
-        <v>118.12961208547266</v>
+        <v>182.70176704202743</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3821,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>34.778282351411754</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3836,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>30.266439265980232</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>122.67194728473923</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3869,22 +4049,22 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>43.092768020951127</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>159.483787297742</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>89.332157086238254</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>49.490092476567987</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>245.89196639358943</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>174.74667914042811</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3916,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>28.2162264226072</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3940,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>17.581644875742164</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>102.40742800201079</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3973,22 +4153,22 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>16.754665372102302</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>192.74655501290817</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>168.06245356071773</v>
       </c>
       <c r="Z33">
-        <v>49.490092476567987</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>196.08349103013717</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>114.88430458435906</v>
+        <v>0</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -4044,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>17.581644875742164</v>
+        <v>2.1435991523887932</v>
       </c>
       <c r="M34">
-        <v>102.40742800201079</v>
+        <v>50.930881937414597</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -4104,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>217.44740357079473</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>123.24433312439065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
@@ -4139,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>4.4107166845851067</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>72.729266623572215</v>
+        <v>42.929804532148836</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -4208,13 +4388,13 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>38.222337976942413</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>247.41934030734754</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>188.85932701991032</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
@@ -4237,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>58.979266203937641</v>
+        <v>57.488091080774382</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4285,22 +4465,22 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>43.092768020951134</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>212.15199333974951</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>141.14318168760576</v>
       </c>
       <c r="Z36">
-        <v>49.490092476567987</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>221.79766126262336</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>141.94946237781406</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -4332,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>44.872394947607205</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4341,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>58.979266203937641</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4380,13 +4560,13 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>14.602042417957795</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>174.30097224507989</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>133.63000166431749</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -4416,13 +4596,13 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>251.78803844120785</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>151.50672460595788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
@@ -4454,16 +4634,16 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>46.277738039466968</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>30.266439265980232</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>122.67194728473923</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -4511,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>73.997624461070103</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>173.05139781263568</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>92.6103781953978</v>
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4546,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>3.3407826176191611</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>77.707808688398316</v>
+        <v>36.840428427068147</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4597,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>43.092768020951134</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>188.69779042061108</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>113.17773167059069</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4624,13 +4804,13 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>38.222337976942413</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>247.41934030734757</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>188.85932701991032</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
@@ -4659,19 +4839,19 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>10.467967914470137</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>94.452518260215925</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>17.581644875742164</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>100.77298006574178</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -4701,22 +4881,22 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>43.092768020951127</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>188.69779042061108</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>113.17773167059067</v>
       </c>
       <c r="Z40">
-        <v>49.49009247656798</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>196.08349103013717</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>114.88430458435903</v>
+        <v>0</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4763,10 +4943,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>22.458467972402914</v>
+        <v>7.7617153656454896</v>
       </c>
       <c r="J41">
-        <v>111.37405240075597</v>
+        <v>86.337526237485605</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4796,22 +4976,22 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>14.602042417957788</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>154.4775244497099</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>109.74411630973256</v>
       </c>
       <c r="W41">
-        <v>43.092768020951141</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>159.48378729774203</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>89.332157086238283</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4867,19 +5047,19 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>10.467967914470137</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>94.452518260215925</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>8.9916950912138471</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>77.488145345985899</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -4918,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>49.490092476567987</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>222.76658022846391</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>141.47638513765762</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4936,13 +5116,13 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>217.44740357079468</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>123.24433312439056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
@@ -4971,19 +5151,19 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1.0781857947647251</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>66.145159581564656</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>17.581644875742164</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>102.40742800201079</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -5013,13 +5193,13 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>16.754665372102302</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>181.14440756729769</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>138.36661611898415</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -5069,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>58.979266203937641</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -5084,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>8.9916950912138471</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>77.488145345985899</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -5144,13 +5324,13 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>84.382415282593058</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>251.81821585985102</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>151.99875182188012</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -5170,19 +5350,19 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>3.3407826176191611</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>77.707808688398316</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1.0781857947647251</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>66.145159581564656</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -5239,13 +5419,13 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>73.997624461070103</v>
+        <v>33.532256515976343</v>
       </c>
       <c r="AD45">
-        <v>209.17023028897916</v>
+        <v>212.4109058905791</v>
       </c>
       <c r="AE45">
-        <v>118.12961208547266</v>
+        <v>151.96233470244795</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -5277,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>57.488091080774382</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -5292,10 +5472,10 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>30.266439265980232</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>122.67194728473923</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -5334,22 +5514,22 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>49.490092476567987</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>163.54346850310182</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>92.398724873289069</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>73.997624461070103</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>242.02412219229922</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>145.40334636927727</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -5372,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>44.872394947607205</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5387,10 +5567,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>22.458467972402914</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>111.37405240075597</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -5438,22 +5618,22 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>27.324230451233923</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>205.39585507749828</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>142.82727953104262</v>
       </c>
       <c r="AC47">
-        <v>73.997624461070103</v>
+        <v>0</v>
       </c>
       <c r="AD47">
-        <v>173.05139781263568</v>
+        <v>0</v>
       </c>
       <c r="AE47">
-        <v>92.6103781953978</v>
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -5485,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>34.778282351411754</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5500,10 +5680,10 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>30.266439265980232</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>122.67194728473923</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -5560,13 +5740,13 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>176.90044323021004</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>98.535264355040084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
@@ -5580,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>28.2162264226072</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5595,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>10.467967914470137</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>94.452518260215925</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5664,13 +5844,13 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>38.222337976942399</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>247.41934030734754</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>188.85932701991027</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
@@ -5699,19 +5879,19 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>22.458467972402914</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>111.37405240075597</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>17.581644875742164</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>100.77298006574178</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -5750,22 +5930,22 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>49.49009247656798</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>163.54346850310185</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>92.398724873289041</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>73.997624461070103</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>209.17023028897916</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>118.12961208547269</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5794,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>3.3407826176191611</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>77.707808688398316</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>7.7617153656454896</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>86.337526237485605</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5854,13 +6034,13 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>49.490092476567987</v>
+        <v>27.324230451233923</v>
       </c>
       <c r="AA51">
-        <v>196.08349103013717</v>
+        <v>183.33978954864097</v>
       </c>
       <c r="AB51">
-        <v>114.88430458435906</v>
+        <v>113.51797850803362</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -5898,19 +6078,19 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>3.3407826176191611</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>77.707808688398316</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>4.4107166845851067</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>71.129818624752104</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5958,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>49.49009247656798</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>222.76658022846391</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>141.47638513765759</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -5976,13 +6156,13 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG52">
-        <v>217.44740357079468</v>
+        <v>0</v>
       </c>
       <c r="AH52">
-        <v>123.24433312439061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
@@ -6005,16 +6185,16 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>57.793652622386375</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>22.458467972402914</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>111.37405240075597</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -6053,13 +6233,13 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>16.754665372102302</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>181.14440756729778</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>138.36661611898415</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -6080,13 +6260,13 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG53">
-        <v>176.90044323021002</v>
+        <v>0</v>
       </c>
       <c r="AH53">
-        <v>98.535264355040027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
@@ -6115,19 +6295,19 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>4.4107166845851067</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>71.129818624752104</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>30.266439265980232</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>122.67194728473923</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -6184,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>84.382415282593058</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>251.81821585985094</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>151.99875182188003</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
@@ -6210,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>10.157174662845176</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>94.159584986007658</v>
+        <v>57.793652622386375</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -6261,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>43.092768020951134</v>
+        <v>0</v>
       </c>
       <c r="X55">
-        <v>159.48378729774197</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>89.332157086238254</v>
+        <v>0</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -6279,13 +6459,13 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>33.532256515976343</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>212.4109058905791</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>151.96233470244798</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -6314,19 +6494,19 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>3.3407826176191611</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>77.707808688398316</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>10.467967914470137</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>92.971415506670851</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -6365,13 +6545,13 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>43.092768020951141</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>188.69779042061111</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>113.1777316705907</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -6418,19 +6598,19 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>3.2264706302412498</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>78.256018206499846</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>22.458467972402914</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>111.37405240075597</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -6460,13 +6640,13 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>14.602042417957795</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>154.47752444970996</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>109.74411630973265</v>
       </c>
       <c r="W57">
         <v>0</v>
@@ -6522,10 +6702,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>10.157174662845176</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>94.159584986007658</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -6540,10 +6720,10 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>8.9916950912138471</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>77.488145345985899</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -6591,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <v>73.997624461070103</v>
+        <v>0</v>
       </c>
       <c r="AD58">
-        <v>173.05139781263568</v>
+        <v>0</v>
       </c>
       <c r="AE58">
-        <v>92.6103781953978</v>
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -6626,19 +6806,19 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>10.157174662845176</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>94.159584986007658</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1.0781857947647251</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>66.145159581564656</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -6686,13 +6866,13 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>49.490092476567987</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>163.54346850310185</v>
+        <v>0</v>
       </c>
       <c r="AB59">
-        <v>92.398724873289069</v>
+        <v>0</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -6704,13 +6884,13 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>38.222337976942413</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>227.65071938323842</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>156.9086105250131</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
@@ -6730,19 +6910,19 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>10.157174662845176</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>94.159584986007658</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>10.467967914470137</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>92.971415506670851</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -6799,22 +6979,22 @@
         <v>0</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>73.997624461070103</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>209.17023028897916</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>118.12961208547266</v>
       </c>
       <c r="AF60">
-        <v>84.382415282593058</v>
+        <v>0</v>
       </c>
       <c r="AG60">
-        <v>176.90044323021002</v>
+        <v>0</v>
       </c>
       <c r="AH60">
-        <v>98.535264355040056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
@@ -6834,10 +7014,10 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>10.157174662845176</v>
+        <v>3.2264706302412498</v>
       </c>
       <c r="G61">
-        <v>94.159584986007658</v>
+        <v>78.256018206499846</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6894,13 +7074,13 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>27.324230451233923</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>183.33978954864102</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>113.51797850803366</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -6938,19 +7118,19 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>70.906441226348576</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>161.44761271958026</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>4.4107166845851067</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>71.129818624752104</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -7010,10 +7190,10 @@
         <v>0</v>
       </c>
       <c r="AD62">
-        <v>70.906441226348576</v>
+        <v>0</v>
       </c>
       <c r="AE62">
-        <v>161.44761271958026</v>
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -7022,6 +7202,6246 @@
         <v>0</v>
       </c>
       <c r="AH62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>57.793652622386375</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>38.222337976942413</v>
+      </c>
+      <c r="AG63">
+        <v>227.65071938323842</v>
+      </c>
+      <c r="AH63">
+        <v>156.9086105250131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>30.266439265980232</v>
+      </c>
+      <c r="M64">
+        <v>121.03749934847022</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>43.092768020951127</v>
+      </c>
+      <c r="X64">
+        <v>159.483787297742</v>
+      </c>
+      <c r="Y64">
+        <v>89.332157086238254</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>13.577277719564481</v>
+      </c>
+      <c r="J65">
+        <v>105.46995205979269</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>14.602042417957788</v>
+      </c>
+      <c r="U65">
+        <v>135.79294390961516</v>
+      </c>
+      <c r="V65">
+        <v>87.821910839309695</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>17.581644875742164</v>
+      </c>
+      <c r="M66">
+        <v>100.77298006574178</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>49.490092476567987</v>
+      </c>
+      <c r="AA66">
+        <v>196.08349103013717</v>
+      </c>
+      <c r="AB66">
+        <v>114.88430458435906</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>7.7617153656454896</v>
+      </c>
+      <c r="J67">
+        <v>86.337526237485605</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>16.754665372102302</v>
+      </c>
+      <c r="X67">
+        <v>159.98109757400061</v>
+      </c>
+      <c r="Y67">
+        <v>114.51628205019759</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>57.488091080774382</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>84.382415282593058</v>
+      </c>
+      <c r="AG68">
+        <v>251.81821585985097</v>
+      </c>
+      <c r="AH68">
+        <v>151.99875182188006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>44.872394947607205</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>33.532256515976343</v>
+      </c>
+      <c r="AD69">
+        <v>212.4109058905791</v>
+      </c>
+      <c r="AE69">
+        <v>151.96233470244798</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>17.581644875742164</v>
+      </c>
+      <c r="M70">
+        <v>100.77298006574178</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>84.382415282593058</v>
+      </c>
+      <c r="AG70">
+        <v>217.44740357079473</v>
+      </c>
+      <c r="AH70">
+        <v>123.24433312439065</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>7.7617153656454896</v>
+      </c>
+      <c r="J71">
+        <v>86.337526237485605</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>33.532256515976343</v>
+      </c>
+      <c r="AD71">
+        <v>190.02063052905694</v>
+      </c>
+      <c r="AE71">
+        <v>120.87641144683175</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>57.488091080774382</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>49.490092476567987</v>
+      </c>
+      <c r="AA72">
+        <v>222.76658022846394</v>
+      </c>
+      <c r="AB72">
+        <v>141.47638513765759</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>44.872394947607205</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>16.754665372102302</v>
+      </c>
+      <c r="X73">
+        <v>181.14440756729772</v>
+      </c>
+      <c r="Y73">
+        <v>138.36661611898415</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>30.266439265980232</v>
+      </c>
+      <c r="M74">
+        <v>121.03749934847022</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>73.997624461070103</v>
+      </c>
+      <c r="AD74">
+        <v>173.05139781263568</v>
+      </c>
+      <c r="AE74">
+        <v>92.6103781953978</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>13.577277719564481</v>
+      </c>
+      <c r="J75">
+        <v>105.46995205979269</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>27.324230451233923</v>
+      </c>
+      <c r="AA75">
+        <v>158.71482562232484</v>
+      </c>
+      <c r="AB75">
+        <v>90.898698305285535</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>3.3407826176191611</v>
+      </c>
+      <c r="G76">
+        <v>76.516438608650844</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>43.092768020951134</v>
+      </c>
+      <c r="X76">
+        <v>188.69779042061108</v>
+      </c>
+      <c r="Y76">
+        <v>113.17773167059069</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>63.233821939687274</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>14.602042417957795</v>
+      </c>
+      <c r="U77">
+        <v>154.47752444970996</v>
+      </c>
+      <c r="V77">
+        <v>109.7441163097326</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>10.467967914470137</v>
+      </c>
+      <c r="J78">
+        <v>92.971415506670851</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>84.382415282593058</v>
+      </c>
+      <c r="AG78">
+        <v>217.44740357079468</v>
+      </c>
+      <c r="AH78">
+        <v>123.24433312439056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>3.2264706302412498</v>
+      </c>
+      <c r="G79">
+        <v>78.256018206499846</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>33.532256515976343</v>
+      </c>
+      <c r="AD79">
+        <v>190.02063052905694</v>
+      </c>
+      <c r="AE79">
+        <v>120.87641144683178</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>10.467967914470137</v>
+      </c>
+      <c r="J80">
+        <v>92.971415506670851</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>49.49009247656798</v>
+      </c>
+      <c r="AA80">
+        <v>196.08349103013717</v>
+      </c>
+      <c r="AB80">
+        <v>114.88430458435903</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>3.2264706302412498</v>
+      </c>
+      <c r="G81">
+        <v>78.256018206499846</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>16.754665372102302</v>
+      </c>
+      <c r="X81">
+        <v>159.98109757400064</v>
+      </c>
+      <c r="Y81">
+        <v>114.51628205019763</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>57.488091080774382</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>44.872394947607205</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>38.222337976942399</v>
+      </c>
+      <c r="AG83">
+        <v>227.65071938323837</v>
+      </c>
+      <c r="AH83">
+        <v>156.90861052501307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>17.581644875742164</v>
+      </c>
+      <c r="M84">
+        <v>100.77298006574178</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>7.7617153656454896</v>
+      </c>
+      <c r="J85">
+        <v>86.337526237485605</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>38.222337976942413</v>
+      </c>
+      <c r="AG85">
+        <v>201.83804108497628</v>
+      </c>
+      <c r="AH85">
+        <v>125.11619479944189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>22.458467972402914</v>
+      </c>
+      <c r="J86">
+        <v>109.8929496472109</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>43.092768020951141</v>
+      </c>
+      <c r="X86">
+        <v>159.48378729774203</v>
+      </c>
+      <c r="Y86">
+        <v>89.332157086238283</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>6.6013159674727913</v>
+      </c>
+      <c r="G87">
+        <v>97.13247922042224</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>14.602042417957795</v>
+      </c>
+      <c r="U87">
+        <v>135.79294390961522</v>
+      </c>
+      <c r="V87">
+        <v>87.821910839309766</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>3.3407826176191611</v>
+      </c>
+      <c r="G88">
+        <v>76.516438608650844</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>73.997624461070103</v>
+      </c>
+      <c r="AD88">
+        <v>209.17023028897916</v>
+      </c>
+      <c r="AE88">
+        <v>118.12961208547266</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>63.233821939687274</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>27.324230451233923</v>
+      </c>
+      <c r="AA89">
+        <v>183.33978954864099</v>
+      </c>
+      <c r="AB89">
+        <v>113.51797850803365</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>30.266439265980232</v>
+      </c>
+      <c r="M90">
+        <v>121.03749934847022</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>49.490092476567987</v>
+      </c>
+      <c r="AA90">
+        <v>163.54346850310182</v>
+      </c>
+      <c r="AB90">
+        <v>92.398724873289069</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>13.577277719564481</v>
+      </c>
+      <c r="J91">
+        <v>105.46995205979269</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>16.754665372102302</v>
+      </c>
+      <c r="X91">
+        <v>141.02885270698167</v>
+      </c>
+      <c r="Y91">
+        <v>91.20484176698568</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>22.458467972402914</v>
+      </c>
+      <c r="J92">
+        <v>109.8929496472109</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>73.997624461070103</v>
+      </c>
+      <c r="AD92">
+        <v>173.05139781263568</v>
+      </c>
+      <c r="AE92">
+        <v>92.6103781953978</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>6.6013159674727913</v>
+      </c>
+      <c r="G93">
+        <v>97.13247922042224</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>27.324230451233923</v>
+      </c>
+      <c r="AA93">
+        <v>158.71482562232489</v>
+      </c>
+      <c r="AB93">
+        <v>90.898698305285563</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>30.266439265980232</v>
+      </c>
+      <c r="M94">
+        <v>121.03749934847022</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>84.382415282593058</v>
+      </c>
+      <c r="AG94">
+        <v>176.90044323021004</v>
+      </c>
+      <c r="AH94">
+        <v>98.535264355040084</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>13.577277719564481</v>
+      </c>
+      <c r="J95">
+        <v>105.46995205979269</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>33.532256515976343</v>
+      </c>
+      <c r="AD95">
+        <v>164.03532995442453</v>
+      </c>
+      <c r="AE95">
+        <v>96.76110831922405</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>10.467967914470137</v>
+      </c>
+      <c r="J96">
+        <v>92.971415506670851</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>3.2264706302412498</v>
+      </c>
+      <c r="G97">
+        <v>78.256018206499846</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>38.222337976942413</v>
+      </c>
+      <c r="AG97">
+        <v>201.83804108497628</v>
+      </c>
+      <c r="AH97">
+        <v>125.1161947994419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>3.3407826176191611</v>
+      </c>
+      <c r="G98">
+        <v>76.516438608650844</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>84.382415282593058</v>
+      </c>
+      <c r="AG98">
+        <v>217.44740357079468</v>
+      </c>
+      <c r="AH98">
+        <v>123.24433312439061</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>63.233821939687274</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>33.532256515976343</v>
+      </c>
+      <c r="AD99">
+        <v>190.02063052905692</v>
+      </c>
+      <c r="AE99">
+        <v>120.87641144683178</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>3.3407826176191611</v>
+      </c>
+      <c r="G100">
+        <v>76.516438608650844</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>49.490092476567987</v>
+      </c>
+      <c r="AA100">
+        <v>196.08349103013717</v>
+      </c>
+      <c r="AB100">
+        <v>114.88430458435906</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>63.233821939687274</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>16.754665372102302</v>
+      </c>
+      <c r="X101">
+        <v>159.98109757400064</v>
+      </c>
+      <c r="Y101">
+        <v>114.51628205019762</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>30.266439265980232</v>
+      </c>
+      <c r="M102">
+        <v>121.03749934847022</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>13.577277719564481</v>
+      </c>
+      <c r="J103">
+        <v>105.46995205979269</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>38.222337976942413</v>
+      </c>
+      <c r="AG103">
+        <v>173.20873181611489</v>
+      </c>
+      <c r="AH103">
+        <v>100.65766683571667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>22.458467972402914</v>
+      </c>
+      <c r="J104">
+        <v>109.8929496472109</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>49.49009247656798</v>
+      </c>
+      <c r="AA104">
+        <v>163.54346850310185</v>
+      </c>
+      <c r="AB104">
+        <v>92.398724873289041</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>6.6013159674727913</v>
+      </c>
+      <c r="G105">
+        <v>97.13247922042224</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>16.754665372102302</v>
+      </c>
+      <c r="X105">
+        <v>141.02885270698175</v>
+      </c>
+      <c r="Y105">
+        <v>91.204841766985709</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>22.458467972402914</v>
+      </c>
+      <c r="J106">
+        <v>109.8929496472109</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>84.382415282593058</v>
+      </c>
+      <c r="AG106">
+        <v>176.90044323021002</v>
+      </c>
+      <c r="AH106">
+        <v>98.535264355040027</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>6.6013159674727913</v>
+      </c>
+      <c r="G107">
+        <v>97.13247922042224</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>33.532256515976343</v>
+      </c>
+      <c r="AD107">
+        <v>164.0353299544245</v>
+      </c>
+      <c r="AE107">
+        <v>96.761108319224093</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>3.3407826176191611</v>
+      </c>
+      <c r="G108">
+        <v>76.516438608650844</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>63.233821939687274</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>38.222337976942399</v>
+      </c>
+      <c r="AG109">
+        <v>201.83804108497628</v>
+      </c>
+      <c r="AH109">
+        <v>125.11619479944187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>10.157174662845176</v>
+      </c>
+      <c r="G110">
+        <v>92.968214906260187</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>43.092768020951134</v>
+      </c>
+      <c r="X110">
+        <v>159.48378729774197</v>
+      </c>
+      <c r="Y110">
+        <v>89.332157086238254</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>80.423368454945745</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>14.602042417957795</v>
+      </c>
+      <c r="U111">
+        <v>135.79294390961519</v>
+      </c>
+      <c r="V111">
+        <v>87.821910839309737</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>22.458467972402914</v>
+      </c>
+      <c r="J112">
+        <v>109.8929496472109</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>6.6013159674727913</v>
+      </c>
+      <c r="G113">
+        <v>97.13247922042224</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <v>38.222337976942413</v>
+      </c>
+      <c r="AG113">
+        <v>173.20873181611489</v>
+      </c>
+      <c r="AH113">
+        <v>100.65766683571667</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>10.157174662845176</v>
+      </c>
+      <c r="G114">
+        <v>92.968214906260187</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>73.997624461070103</v>
+      </c>
+      <c r="AD114">
+        <v>173.05139781263568</v>
+      </c>
+      <c r="AE114">
+        <v>92.6103781953978</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>80.423368454945745</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>27.324230451233923</v>
+      </c>
+      <c r="AA115">
+        <v>158.71482562232489</v>
+      </c>
+      <c r="AB115">
+        <v>90.898698305285535</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>10.157174662845176</v>
+      </c>
+      <c r="G116">
+        <v>92.968214906260187</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>84.382415282593058</v>
+      </c>
+      <c r="AG116">
+        <v>176.90044323021002</v>
+      </c>
+      <c r="AH116">
+        <v>98.535264355040056</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>80.423368454945745</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>33.532256515976343</v>
+      </c>
+      <c r="AD117">
+        <v>164.03532995442447</v>
+      </c>
+      <c r="AE117">
+        <v>96.761108319224064</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>10.157174662845176</v>
+      </c>
+      <c r="G118">
+        <v>92.968214906260187</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>49.490092476567987</v>
+      </c>
+      <c r="AA118">
+        <v>163.54346850310185</v>
+      </c>
+      <c r="AB118">
+        <v>92.398724873289069</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>80.423368454945745</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>16.754665372102302</v>
+      </c>
+      <c r="X119">
+        <v>141.02885270698175</v>
+      </c>
+      <c r="Y119">
+        <v>91.204841766985709</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>10.157174662845176</v>
+      </c>
+      <c r="G120">
+        <v>92.968214906260187</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>80.423368454945745</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>38.222337976942399</v>
+      </c>
+      <c r="AG121">
+        <v>173.20873181611486</v>
+      </c>
+      <c r="AH121">
+        <v>100.65766683571664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>35.734613448464877</v>
+      </c>
+      <c r="D122">
+        <v>146.38873801712106</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>35.734613448464877</v>
+      </c>
+      <c r="AB122">
+        <v>146.38873801712106</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
         <v>0</v>
       </c>
     </row>

--- a/bin/Debug/Sortimentos/Título.xlsx
+++ b/bin/Debug/Sortimentos/Título.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Source\Repos\henrique4d\Simulador\bin\Debug\Sortimentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B98B91-83C5-4AD0-9891-9ABFAAE29152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFF647E-32B4-4944-9D6E-00A9927C4527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{E65C28AF-5EBC-42E0-8C00-A9BA8408B4B0}"/>
+    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{E6FB5FB7-80E6-4CC0-82B0-2A153E4F839C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sortimentos" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D327EC3-966E-4BB8-8D65-C9D49CC2B07D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC89EBB-00B4-4B59-87EB-0B373C5F8E3C}">
   <dimension ref="A1:AH122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
